--- a/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
+++ b/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
@@ -27,9 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>ID</t>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>pro_id</t>
+  </si>
+  <si>
+    <t>level</t>
   </si>
   <si>
     <t>ship_name_string</t>
@@ -1192,19 +1198,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="17.3076923076923" customWidth="1"/>
-    <col min="3" max="3" width="59.4423076923077" customWidth="1"/>
+    <col min="2" max="2" width="10.5769230769231" customWidth="1"/>
+    <col min="3" max="3" width="10.4134615384615" customWidth="1"/>
+    <col min="4" max="4" width="17.3076923076923" customWidth="1"/>
+    <col min="5" max="5" width="59.4423076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1214,27 +1222,45 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
+++ b/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>uid</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>shape_coord_string</t>
+  </si>
+  <si>
+    <t>core_number</t>
   </si>
   <si>
     <t>_1x2</t>
@@ -66,10 +69,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -413,12 +423,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,138 +564,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1198,21 +1226,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="10.5769230769231" customWidth="1"/>
     <col min="3" max="3" width="10.4134615384615" customWidth="1"/>
     <col min="4" max="4" width="17.3076923076923" customWidth="1"/>
     <col min="5" max="5" width="59.4423076923077" customWidth="1"/>
+    <col min="6" max="6" width="12.6538461538462" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1228,8 +1257,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1240,13 +1272,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1257,10 +1292,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
+++ b/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
@@ -27,12 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>uid</t>
   </si>
   <si>
-    <t>pro_id</t>
+    <t>pre_id</t>
   </si>
   <si>
     <t>level</t>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>core_number</t>
+  </si>
+  <si>
+    <t>1A</t>
   </si>
   <si>
     <t>_1x2</t>
@@ -1229,7 +1232,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1268,14 +1271,14 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1289,13 +1292,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>1</v>

--- a/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
+++ b/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>uid</t>
   </si>
@@ -47,19 +47,28 @@
     <t>core_number</t>
   </si>
   <si>
-    <t>1A</t>
-  </si>
-  <si>
     <t>_1x2</t>
   </si>
   <si>
-    <t>[{"x":0,"y":0},{"x":0,"y":1}]</t>
+    <t>[{"x":0,"y":0},{"x":0,"y":1},{"x":-1,"y":0}]</t>
   </si>
   <si>
     <t>_1x3</t>
   </si>
   <si>
     <t>[{"x":0,"y":0},{"x":0,"y":-1},{"x":0,"y":1}]</t>
+  </si>
+  <si>
+    <t>_3x3</t>
+  </si>
+  <si>
+    <t>[{"x":0,"y":0},{"x":0,"y":-1},{"x":0,"y":1},{"x":-1,"y":0},{"x":1,"y":0},{"x":-1,"y":-1},{"x":-1,"y":1},{"x":1,"y":-1},{"x":1,"y":1}]</t>
+  </si>
+  <si>
+    <t>_3a2</t>
+  </si>
+  <si>
+    <t>[{"x":0,"y":0},{"x":0,"y":-1},{"x":0,"y":1},{"x":-1,"y":0},{"x":1,"y":0}]</t>
   </si>
 </sst>
 </file>
@@ -72,10 +81,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -567,141 +582,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1229,18 +1247,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="10.5769230769231" customWidth="1"/>
     <col min="3" max="3" width="10.4134615384615" customWidth="1"/>
     <col min="4" max="4" width="17.3076923076923" customWidth="1"/>
-    <col min="5" max="5" width="59.4423076923077" customWidth="1"/>
+    <col min="5" max="5" width="118.586538461538" customWidth="1"/>
     <col min="6" max="6" width="12.6538461538462" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1260,7 +1278,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1271,14 +1289,14 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1292,15 +1310,55 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
     </row>

--- a/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
+++ b/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>uid</t>
   </si>
@@ -35,9 +35,15 @@
     <t>pre_id</t>
   </si>
   <si>
+    <t>brench</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
+    <t>skill_name_string</t>
+  </si>
+  <si>
     <t>ship_name_string</t>
   </si>
   <si>
@@ -45,6 +51,12 @@
   </si>
   <si>
     <t>core_number</t>
+  </si>
+  <si>
+    <t>skill_coord_string</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
   <si>
     <t>_1x2</t>
@@ -91,13 +103,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -716,11 +728,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1247,22 +1259,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="10.5769230769231" customWidth="1"/>
-    <col min="3" max="3" width="10.4134615384615" customWidth="1"/>
-    <col min="4" max="4" width="17.3076923076923" customWidth="1"/>
-    <col min="5" max="5" width="118.586538461538" customWidth="1"/>
-    <col min="6" max="6" width="12.6538461538462" customWidth="1"/>
+    <col min="3" max="4" width="10.4134615384615" customWidth="1"/>
+    <col min="5" max="6" width="17.3076923076923" customWidth="1"/>
+    <col min="7" max="7" width="118.586538461538" customWidth="1"/>
+    <col min="8" max="8" width="12.6538461538462" customWidth="1"/>
+    <col min="9" max="9" width="100.788461538462" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1278,87 +1291,109 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:6">
+    <row r="5" ht="17" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
     </row>

--- a/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
+++ b/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12380"/>
+    <workbookView windowWidth="29400" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>uid</t>
   </si>
@@ -59,6 +59,9 @@
     <t>AB</t>
   </si>
   <si>
+    <t>bomb_focus</t>
+  </si>
+  <si>
     <t>_1x2</t>
   </si>
   <si>
@@ -69,6 +72,9 @@
   </si>
   <si>
     <t>[{"x":0,"y":0},{"x":0,"y":-1},{"x":0,"y":1}]</t>
+  </si>
+  <si>
+    <t>bomb_wide</t>
   </si>
   <si>
     <t>_3x3</t>
@@ -93,7 +99,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +110,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1B1C1D"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -594,144 +607,147 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1262,7 +1278,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
@@ -1304,7 +1320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1317,17 +1333,23 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1340,17 +1362,23 @@
       <c r="D3">
         <v>0</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1363,17 +1391,23 @@
       <c r="D4">
         <v>0</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" ht="17" spans="1:8">
+    <row r="5" ht="17" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1386,15 +1420,20 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
+++ b/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="14040"/>
+    <workbookView windowWidth="29400" windowHeight="12380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>uid</t>
   </si>
@@ -59,13 +59,19 @@
     <t>AB</t>
   </si>
   <si>
+    <t>rader</t>
+  </si>
+  <si>
+    <t>_1x2</t>
+  </si>
+  <si>
+    <t>[{"x":0,"y":0},{"x":0,"y":1},{"x":-1,"y":0}]</t>
+  </si>
+  <si>
+    <t>[{"x":0,"y":0},{"x":0,"y":1},{"x":-1,"y":0},{"x":1,"y":0}]</t>
+  </si>
+  <si>
     <t>bomb_focus</t>
-  </si>
-  <si>
-    <t>_1x2</t>
-  </si>
-  <si>
-    <t>[{"x":0,"y":0},{"x":0,"y":1},{"x":-1,"y":0}]</t>
   </si>
   <si>
     <t>_1x3</t>
@@ -1277,8 +1283,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
@@ -1346,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1363,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1392,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:9">
@@ -1421,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
+++ b/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
@@ -59,7 +59,7 @@
     <t>AB</t>
   </si>
   <si>
-    <t>rader</t>
+    <t>torpedo</t>
   </si>
   <si>
     <t>_1x2</t>
@@ -105,7 +105,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +116,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -613,147 +619,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1283,8 +1292,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
@@ -1368,7 +1377,7 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
@@ -1397,7 +1406,7 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
@@ -1426,10 +1435,10 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">

--- a/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
+++ b/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>uid</t>
   </si>
@@ -59,40 +59,55 @@
     <t>AB</t>
   </si>
   <si>
+    <t>bomb_focus</t>
+  </si>
+  <si>
+    <t>信号木筏</t>
+  </si>
+  <si>
+    <t>[{"x":0,"y":0},{"x":0,"y":-1},{"x":0,"y":1}]</t>
+  </si>
+  <si>
+    <t>[{"x":0,"y":1},{"x":1,"y":1},{"x":0,"y":0},{"x":1,"y":0}]</t>
+  </si>
+  <si>
+    <t>木瓜船</t>
+  </si>
+  <si>
+    <t>[{"x":0,"y":0},{"x":0,"y":1},{"x":-1,"y":0},{"x":1,"y":0},{"x":0,"y":-1}]</t>
+  </si>
+  <si>
+    <t>[{"x":0,"y":0},{"x":1,"y":0}]</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>bomb_wide</t>
+  </si>
+  <si>
+    <t>木瓜香蕉船</t>
+  </si>
+  <si>
+    <t>[{"x":0,"y":0},{"x":-1,"y":1},{"x":0,"y":1},{"x":1,"y":1},{"x":-1,"y":0},{"x":1,"y":0},{"x":-1,"y":-1},{"x":0,"y":-1},{"x":1,"y":-1}]</t>
+  </si>
+  <si>
+    <t>[{"x":0,"y":0},{"x":1,"y":-1}]</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>torpedo</t>
   </si>
   <si>
-    <t>_1x2</t>
+    <t>可乐潜艇</t>
   </si>
   <si>
     <t>[{"x":0,"y":0},{"x":0,"y":1},{"x":-1,"y":0}]</t>
   </si>
   <si>
-    <t>[{"x":0,"y":0},{"x":0,"y":1},{"x":-1,"y":0},{"x":1,"y":0}]</t>
-  </si>
-  <si>
-    <t>bomb_focus</t>
-  </si>
-  <si>
-    <t>_1x3</t>
-  </si>
-  <si>
-    <t>[{"x":0,"y":0},{"x":0,"y":-1},{"x":0,"y":1}]</t>
-  </si>
-  <si>
-    <t>bomb_wide</t>
-  </si>
-  <si>
-    <t>_3x3</t>
-  </si>
-  <si>
-    <t>[{"x":0,"y":0},{"x":0,"y":-1},{"x":0,"y":1},{"x":-1,"y":0},{"x":1,"y":0},{"x":-1,"y":-1},{"x":-1,"y":1},{"x":1,"y":-1},{"x":1,"y":1}]</t>
-  </si>
-  <si>
-    <t>_3a2</t>
-  </si>
-  <si>
-    <t>[{"x":0,"y":0},{"x":0,"y":-1},{"x":0,"y":1},{"x":-1,"y":0},{"x":1,"y":0}]</t>
+    <t>[{"x":0,"y":0},{"x":0,"y":1}]</t>
   </si>
 </sst>
 </file>
@@ -121,7 +136,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B1C1D"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -129,12 +151,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF1B1C1D"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -749,7 +765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,10 +775,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1290,13 +1312,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="10.5769230769231" customWidth="1"/>
     <col min="3" max="4" width="10.4134615384615" customWidth="1"/>
@@ -1335,7 +1357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" ht="17" spans="1:9">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1357,19 +1379,19 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" ht="17" spans="1:9">
       <c r="A3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1377,14 +1399,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1395,61 +1417,65 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:9">
+    <row r="5" spans="1:9">
       <c r="A5">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
+++ b/Assets/ExcelImporter/ShipData/ShipData_SO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>uid</t>
   </si>
@@ -59,16 +59,19 @@
     <t>AB</t>
   </si>
   <si>
+    <t>radar</t>
+  </si>
+  <si>
+    <t>信号木筏</t>
+  </si>
+  <si>
+    <t>[{"x":0,"y":0},{"x":0,"y":-1},{"x":0,"y":1}]</t>
+  </si>
+  <si>
+    <t>[{"x":0,"y":1},{"x":1,"y":1},{"x":0,"y":0},{"x":1,"y":0}]</t>
+  </si>
+  <si>
     <t>bomb_focus</t>
-  </si>
-  <si>
-    <t>信号木筏</t>
-  </si>
-  <si>
-    <t>[{"x":0,"y":0},{"x":0,"y":-1},{"x":0,"y":1}]</t>
-  </si>
-  <si>
-    <t>[{"x":0,"y":1},{"x":1,"y":1},{"x":0,"y":0},{"x":1,"y":0}]</t>
   </si>
   <si>
     <t>木瓜船</t>
@@ -765,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,9 +786,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1314,8 +1314,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
@@ -1400,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1423,25 +1423,25 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1452,30 +1452,30 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="5:6">
       <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
